--- a/Files/Input/csv/Covid_Cases_India.xlsx
+++ b/Files/Input/csv/Covid_Cases_India.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Files\Input\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D0BC50-F73F-4DD8-98CC-0718F9D7C8A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DA3604-659A-4338-9C07-7812B796E8EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C487D297-57E3-C44C-8502-9D641228CF81}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{C487D297-57E3-C44C-8502-9D641228CF81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>S. No.</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Manipur</t>
+  </si>
+  <si>
+    <t>Sl_No</t>
   </si>
 </sst>
 </file>
@@ -537,6 +540,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -548,42 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,556 +905,556 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:F27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.09765625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.09765625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="20">
         <v>12</v>
       </c>
-      <c r="D2" s="30">
-        <v>0</v>
-      </c>
-      <c r="E2" s="30">
-        <v>1</v>
-      </c>
-      <c r="F2" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="20">
         <v>6</v>
       </c>
-      <c r="D3" s="30">
-        <v>0</v>
-      </c>
-      <c r="E3" s="30">
-        <v>0</v>
-      </c>
-      <c r="F3" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="20">
         <v>38</v>
       </c>
-      <c r="D4" s="30">
-        <v>1</v>
-      </c>
-      <c r="E4" s="30">
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20">
         <v>6</v>
       </c>
-      <c r="F4" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="F4" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="20">
         <v>43</v>
       </c>
-      <c r="D5" s="30">
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
-        <v>0</v>
-      </c>
-      <c r="F5" s="30">
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="20">
         <v>16</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="20">
         <v>14</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="20">
         <v>11</v>
       </c>
-      <c r="F6" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="20">
         <v>4</v>
       </c>
-      <c r="D7" s="30">
-        <v>0</v>
-      </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="20">
         <v>20</v>
       </c>
-      <c r="D8" s="30">
-        <v>0</v>
-      </c>
-      <c r="E8" s="30">
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
         <v>3</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="20">
         <v>131</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="20">
         <v>7</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="20">
         <v>11</v>
       </c>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="20">
         <v>23</v>
       </c>
-      <c r="D10" s="30">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="20">
         <v>144</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="20">
         <v>3</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="20">
         <v>15</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="20">
         <v>3</v>
       </c>
-      <c r="D12" s="30">
-        <v>0</v>
-      </c>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="F12" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="30">
-        <v>1</v>
-      </c>
-      <c r="D13" s="30">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="20">
         <v>29</v>
       </c>
-      <c r="D14" s="30">
-        <v>0</v>
-      </c>
-      <c r="E14" s="30">
-        <v>0</v>
-      </c>
-      <c r="F14" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="20">
         <v>41</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="20">
         <v>2</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="20">
         <v>3</v>
       </c>
-      <c r="F15" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="20">
         <v>32</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="20">
         <v>3</v>
       </c>
-      <c r="E16" s="30">
-        <v>1</v>
-      </c>
-      <c r="F16" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
+      <c r="E16" s="20">
+        <v>1</v>
+      </c>
+      <c r="F16" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="20">
         <v>34</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="20">
         <v>11</v>
       </c>
-      <c r="E17" s="30">
-        <v>1</v>
-      </c>
-      <c r="F17" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="E17" s="20">
+        <v>1</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="20">
         <v>7</v>
       </c>
-      <c r="D18" s="30">
-        <v>0</v>
-      </c>
-      <c r="E18" s="30">
-        <v>0</v>
-      </c>
-      <c r="F18" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="D18" s="20">
+        <v>0</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
         <v>18</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="20">
         <v>18</v>
       </c>
-      <c r="D19" s="30">
-        <v>0</v>
-      </c>
-      <c r="E19" s="30">
-        <v>1</v>
-      </c>
-      <c r="F19" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="D19" s="20">
+        <v>0</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1</v>
+      </c>
+      <c r="F19" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
         <v>19</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="20">
         <v>13</v>
       </c>
-      <c r="D20" s="30">
-        <v>0</v>
-      </c>
-      <c r="E20" s="30">
-        <v>0</v>
-      </c>
-      <c r="F20" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="D20" s="20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
         <v>20</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="20">
         <v>42</v>
       </c>
-      <c r="D21" s="30">
-        <v>1</v>
-      </c>
-      <c r="E21" s="30">
+      <c r="D21" s="20">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20">
         <v>11</v>
       </c>
-      <c r="F21" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="F21" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
         <v>21</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="20">
         <v>4</v>
       </c>
-      <c r="D22" s="30">
-        <v>0</v>
-      </c>
-      <c r="E22" s="30">
-        <v>0</v>
-      </c>
-      <c r="F22" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="D22" s="20">
+        <v>0</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="20">
         <v>11</v>
       </c>
-      <c r="D23" s="30">
-        <v>0</v>
-      </c>
-      <c r="E23" s="30">
-        <v>0</v>
-      </c>
-      <c r="F23" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="D23" s="20">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="20">
         <v>7</v>
       </c>
-      <c r="D24" s="30">
-        <v>0</v>
-      </c>
-      <c r="E24" s="30">
-        <v>0</v>
-      </c>
-      <c r="F24" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="32">
+      <c r="D24" s="20">
+        <v>0</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
         <v>24</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="32">
-        <v>1</v>
-      </c>
-      <c r="D25" s="32">
-        <v>0</v>
-      </c>
-      <c r="E25" s="32">
-        <v>0</v>
-      </c>
-      <c r="F25" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A26" s="32">
+      <c r="C25" s="22">
+        <v>1</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0</v>
+      </c>
+      <c r="E25" s="22">
+        <v>0</v>
+      </c>
+      <c r="F25" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="22">
         <v>6</v>
       </c>
-      <c r="D26" s="32">
-        <v>0</v>
-      </c>
-      <c r="E26" s="32">
-        <v>0</v>
-      </c>
-      <c r="F26" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A27" s="32">
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0</v>
+      </c>
+      <c r="F26" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
         <v>26</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="32">
-        <v>1</v>
-      </c>
-      <c r="D27" s="32">
-        <v>0</v>
-      </c>
-      <c r="E27" s="32">
-        <v>0</v>
-      </c>
-      <c r="F27" s="32">
+      <c r="C27" s="22">
+        <v>1</v>
+      </c>
+      <c r="D27" s="22">
+        <v>0</v>
+      </c>
+      <c r="E27" s="22">
+        <v>0</v>
+      </c>
+      <c r="F27" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1469,65 +1472,65 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="H1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="30" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+    <row r="2" spans="1:13" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="F2" s="33"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="99.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1983,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2097,11 +2100,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="9">
         <v>104</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H19" s="12">
         <v>17</v>
       </c>
@@ -2153,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H20" s="13">
         <v>18</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H21" s="12">
         <v>19</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H22" s="13">
         <v>20</v>
       </c>
@@ -2215,17 +2218,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
